--- a/docs/shrcore/shr-core-MedicationRequest.xlsx
+++ b/docs/shrcore/shr-core-MedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="461">
   <si>
     <t>Path</t>
   </si>
@@ -484,24 +484,74 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+    <t>medicationbasedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationBasedOn-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>basedon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-BasedOn-extension]]} {[]}
+    <t>MedicationBasedOn</t>
+  </si>
+  <si>
+    <t>statusreason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatusReason-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The proposal, order, or plan that is partly or wholly fulfilled by this item.</t>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
+    <t>reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Reported-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record. It may also indicate the source of the report.</t>
+  </si>
+  <si>
+    <t>expectedperformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ExpectedPerformer-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Who this request is being addressed to.</t>
+  </si>
+  <si>
+    <t>expectedperformertype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ExpectedPerformerType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>What type of party should carry out the testing.</t>
+  </si>
+  <si>
+    <t>courseoftherapytype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CourseOfTherapyType-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The description of the overall pattern of the administration of the medication to the patient.</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Insurance-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
   </si>
   <si>
     <t>code</t>
@@ -514,6 +564,16 @@
     <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
   </si>
   <si>
+    <t>expectedperformancetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ExpectedPerformanceTime-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When an action should be done. If the action is a series or recurs (e.g. daily blood sugar testing in the morning) then a Timing can be used to describe the periodicity.</t>
+  </si>
+  <si>
     <t>MedicationRequest.modifierExtension</t>
   </si>
   <si>
@@ -524,6 +584,16 @@
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>donotperform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DoNotPerform-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A flag, when set to true, indicates that the service/procedure should NOT be performed.</t>
   </si>
   <si>
     <t>MedicationRequest.identifier</t>
@@ -827,7 +897,7 @@
     <t>MedicationRequest.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -855,7 +925,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource]]}
 </t>
   </si>
   <si>
@@ -947,7 +1017,7 @@
     <t>MedicationRequest.requester.agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -1006,10 +1076,6 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
-</t>
-  </si>
-  <si>
     <t>Person who entered the request</t>
   </si>
   <si>
@@ -1146,6 +1212,36 @@
     <t>MedicationRequest.dispenseRequest.extension</t>
   </si>
   <si>
+    <t>initialfill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-InitialFill-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates the quantity or duration for the first dispense of the medication.</t>
+  </si>
+  <si>
+    <t>dispenseinterval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DispenseInterval-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The minimum period of time that must occur between dispenses of the medication.</t>
+  </si>
+  <si>
+    <t>numberofrefillsallowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-NumberOfRefillsAllowed-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The maximum number of times the dispense can be repeated. For medication dispense, this integer does NOT include the original order dispense. This means that if an order indicates dispense 30 tablets plus 3 repeats, then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.modifierExtension</t>
   </si>
   <si>
@@ -1329,7 +1425,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationRequest]]}
 </t>
   </si>
   <si>
@@ -1533,7 +1629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1543,7 +1639,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="58.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3682,7 +3778,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3899,40 +3995,38 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K21" t="s" s="2">
         <v>158</v>
       </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3981,7 +4075,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4005,7 +4099,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4016,9 +4110,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4027,7 +4123,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4039,13 +4135,11 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4096,7 +4190,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4114,26 +4208,28 @@
         <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4142,7 +4238,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4151,16 +4247,14 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4211,7 +4305,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4229,13 +4323,13 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4246,9 +4340,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4266,16 +4362,14 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4326,7 +4420,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4344,13 +4438,13 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4361,9 +4455,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4381,21 +4477,17 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4443,13 +4535,13 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
@@ -4461,13 +4553,13 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4476,42 +4568,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4536,13 +4626,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4560,13 +4650,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4575,19 +4665,19 @@
         <v>45</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4595,18 +4685,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4615,19 +4705,19 @@
         <v>56</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4653,37 +4743,35 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4695,26 +4783,28 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4726,22 +4816,20 @@
         <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4768,11 +4856,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4790,13 +4880,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4811,13 +4901,13 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4825,7 +4915,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4836,7 +4926,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -4845,16 +4935,16 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4881,13 +4971,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4905,13 +4995,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -4923,24 +5013,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4948,13 +5038,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -4963,17 +5053,15 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -4998,35 +5086,37 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5035,40 +5125,38 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5080,13 +5168,13 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5113,11 +5201,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5135,13 +5225,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5153,13 +5243,13 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5168,9 +5258,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5178,13 +5268,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
@@ -5193,18 +5283,18 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5252,10 +5342,10 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>55</v>
@@ -5267,27 +5357,27 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5295,31 +5385,31 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>254</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5345,13 +5435,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5369,7 +5459,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5384,27 +5474,27 @@
         <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5412,30 +5502,32 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5460,13 +5552,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5484,13 +5576,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5502,24 +5594,24 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5527,28 +5619,28 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5575,13 +5667,11 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5599,7 +5689,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5614,27 +5704,27 @@
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5642,13 +5732,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -5657,13 +5747,13 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>121</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5690,13 +5780,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5714,7 +5804,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5726,22 +5816,22 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>281</v>
+        <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -5749,7 +5839,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5757,30 +5847,32 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5805,34 +5897,32 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>55</v>
@@ -5844,38 +5934,40 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5884,20 +5976,18 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5922,13 +6012,11 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5946,13 +6034,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5970,7 +6058,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5979,41 +6067,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6063,13 +6151,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6078,27 +6166,27 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6106,31 +6194,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6180,10 +6268,10 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>55</v>
@@ -6195,27 +6283,27 @@
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>298</v>
+        <v>218</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6226,7 +6314,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6235,21 +6323,19 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6297,16 +6383,16 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>45</v>
@@ -6315,24 +6401,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6340,28 +6426,28 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6412,7 +6498,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6427,27 +6513,27 @@
         <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6455,32 +6541,30 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6505,13 +6589,13 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6529,42 +6613,42 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6587,17 +6671,15 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6646,13 +6728,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6664,16 +6746,16 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>332</v>
+        <v>72</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6681,18 +6763,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6704,15 +6786,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6761,7 +6845,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6779,13 +6863,13 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>72</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6796,39 +6880,39 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>341</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6878,7 +6962,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6896,13 +6980,13 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>346</v>
+        <v>144</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6911,9 +6995,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6921,30 +7005,32 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6993,10 +7079,10 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>55</v>
@@ -7005,30 +7091,30 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7048,19 +7134,21 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>68</v>
+        <v>323</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>69</v>
+        <v>324</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>70</v>
+        <v>325</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7108,7 +7196,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>71</v>
+        <v>322</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7117,7 +7205,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>45</v>
@@ -7126,13 +7214,13 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7143,18 +7231,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7166,17 +7254,15 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7225,13 +7311,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -7249,10 +7335,10 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7260,39 +7346,39 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7318,13 +7404,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7342,7 +7428,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7360,24 +7446,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7400,20 +7486,18 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7461,13 +7545,13 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7479,16 +7563,16 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>362</v>
+        <v>218</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -7496,7 +7580,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7519,17 +7603,15 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7578,13 +7660,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7596,24 +7678,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7624,7 +7706,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7636,15 +7718,17 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7693,13 +7777,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7711,24 +7795,24 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7751,17 +7835,15 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7810,7 +7892,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7822,7 +7904,7 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
@@ -7831,10 +7913,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7845,7 +7927,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7868,13 +7950,13 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>387</v>
+        <v>68</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>388</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>70</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7925,7 +8007,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>386</v>
+        <v>71</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -7949,10 +8031,10 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>390</v>
+        <v>72</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -7960,18 +8042,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -7983,15 +8065,17 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8028,31 +8112,29 @@
         <v>45</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8061,10 +8143,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>395</v>
+        <v>72</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8075,9 +8157,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8098,13 +8182,11 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="K57" s="2"/>
       <c r="L57" t="s" s="2">
-        <v>70</v>
+        <v>377</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8155,13 +8237,13 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
@@ -8179,7 +8261,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8190,18 +8272,20 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8213,17 +8297,13 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="K58" s="2"/>
       <c r="L58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8296,7 +8376,7 @@
         <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8307,40 +8387,38 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="C59" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="L59" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8389,7 +8467,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8413,7 +8491,7 @@
         <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8424,18 +8502,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8444,19 +8522,19 @@
         <v>56</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>401</v>
+        <v>176</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8506,13 +8584,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -8527,21 +8605,21 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8564,16 +8642,20 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8597,13 +8679,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8621,7 +8703,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8642,21 +8724,21 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8667,7 +8749,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8679,15 +8761,17 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8736,7 +8820,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8754,35 +8838,35 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>45</v>
@@ -8794,13 +8878,13 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8851,13 +8935,13 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>45</v>
@@ -8872,21 +8956,21 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8897,7 +8981,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>45</v>
@@ -8909,16 +8993,16 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8968,41 +9052,1199 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AF64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG64" t="s" s="2">
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK64" t="s" s="2">
+      <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="M70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO64">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9012,7 +10254,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
